--- a/src/main/resources/excel/volunteer-export-import.xlsx
+++ b/src/main/resources/excel/volunteer-export-import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>义工信息导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>性别</t>
-  </si>
-  <si>
-    <t>年龄</t>
   </si>
   <si>
     <t>身份证号码</t>
@@ -202,14 +199,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -234,14 +228,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -260,6 +247,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -284,163 +285,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -765,40 +615,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="31.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -810,124 +659,109 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/main/resources/excel/volunteer-export-import.xlsx
+++ b/src/main/resources/excel/volunteer-export-import.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>义工信息导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -66,6 +64,10 @@
   </si>
   <si>
     <t>非必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否组长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,15 +617,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
+    <row r="1" spans="1:14" ht="31.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -638,9 +640,10 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,8 +683,11 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -720,11 +726,14 @@
       </c>
       <c r="M3" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
@@ -766,32 +775,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/excel/volunteer-export-import.xlsx
+++ b/src/main/resources/excel/volunteer-export-import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>义工信息导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -35,9 +35,6 @@
     <t>手机号</t>
   </si>
   <si>
-    <t>上过课程</t>
-  </si>
-  <si>
     <t>了凡厚道</t>
   </si>
   <si>
@@ -68,6 +65,66 @@
   </si>
   <si>
     <t>是否组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安菲菲</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>140522199606012741</t>
+  </si>
+  <si>
+    <t>秀SHOW</t>
+  </si>
+  <si>
+    <t>18535657720</t>
+  </si>
+  <si>
+    <t>协调|主持|课堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义工</t>
+  </si>
+  <si>
+    <t>白根富</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>140502195609151014</t>
+  </si>
+  <si>
+    <t>退休</t>
+  </si>
+  <si>
+    <t>15135690068</t>
+  </si>
+  <si>
+    <t>毕冰洋</t>
+  </si>
+  <si>
+    <t>140581199501073919</t>
+  </si>
+  <si>
+    <t>闽南师大</t>
+  </si>
+  <si>
+    <t>18259680093</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +170,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -201,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,7 +285,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,13 +342,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -276,6 +355,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -617,31 +706,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -660,75 +755,201 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>15</v>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -737,39 +958,39 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="4" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="3" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="A4:A6">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="A4:A6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/volunteer-export-import.xlsx
+++ b/src/main/resources/excel/volunteer-export-import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>义工信息导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -125,6 +125,26 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,9 +318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,7 +333,55 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -706,39 +771,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="5" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="31.5">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -755,39 +822,45 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -796,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>14</v>
@@ -816,17 +889,23 @@
       <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -842,35 +921,41 @@
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -886,33 +971,39 @@
       <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -928,70 +1019,82 @@
       <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="11" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="9" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:P3">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:P3">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="4" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="3" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="duplicateValues" dxfId="10" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="duplicateValues" dxfId="9" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/main/resources/excel/volunteer-export-import.xlsx
+++ b/src/main/resources/excel/volunteer-export-import.xlsx
@@ -333,21 +333,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -372,6 +358,71 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -774,7 +825,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -872,28 +923,28 @@
         <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>37</v>
@@ -980,7 +1031,9 @@
       <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
       <c r="J5" s="4">
         <v>4</v>
       </c>
@@ -1028,7 +1081,9 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -1038,7 +1093,9 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
       <c r="N6" s="4">
         <v>1</v>
       </c>
@@ -1055,46 +1112,58 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="15" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="10" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="9" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/main/resources/excel/volunteer-export-import.xlsx
+++ b/src/main/resources/excel/volunteer-export-import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>义工信息导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +337,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -345,67 +349,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -824,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -929,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>13</v>
@@ -947,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>37</v>
@@ -1112,58 +1068,58 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="16" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="15" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
